--- a/spreadsheet/macrofree/azure_storage_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/azure_storage_checklist.ja.xlsx
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Resource Graph エクスプローラー (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) を利用して、匿名 BLOB アクセスを許可するストレージ アカウントを見つけます。</t>
+          <t>匿名アクセスは、セキュリティ上のリスクをもたらす可能性があります。最適なセキュリティのために、匿名アクセスを無効にすることをお勧めします。匿名アクセスを禁止すると、望ましくない匿名アクセスによって引き起こされるデータ侵害を防ぐことができます。</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
